--- a/biology/Botanique/Schlumbergera_×_buckleyi/Schlumbergera_×_buckleyi.xlsx
+++ b/biology/Botanique/Schlumbergera_×_buckleyi/Schlumbergera_×_buckleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Schlumbergera_%C3%97_buckleyi</t>
+          <t>Schlumbergera_×_buckleyi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cactus de Noël
 Schlumbergera × buckleyi est un hybride de Schlumbergera truncata et Schlumbergera russelliana . C'est une plante cultivée largement distribuée. Elle pourrait provenir d'une hybridation naturelle, en zone de chevauchement des espèces parentes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Schlumbergera_%C3%97_buckleyi</t>
+          <t>Schlumbergera_×_buckleyi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les segments de tige sont similaires à Schlumbergera russelliana, mais plus grands. Les bords des segments sont ondulés, les dents ne se développent pas. Ses fleurs se forment à l'extrémité des segments terminaux (aréoles), au moment de Noël dans l'hémisphère nord . Ses fleurs sont actinomorphes , les pétales sont de couleur cyclamen et son pollen est également rose. Le péricarpe a 4 côtes.
 C'est une plante cultivée très répandue et faciles à cultiver même par des amateurs. Sa période de floraison est un peu plus tardive que l'espèce Schlumbergera truncata , en Hongrie fin décembre-début janvier, d'où son nom commun, "cactus de Noël". De nos jours , 'Schlumbergera truncata , qui se propage en grand nombre par l'horticulture, fleurit plus tôt, fin novembre-début décembre.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Schlumbergera_%C3%97_buckleyi</t>
+          <t>Schlumbergera_×_buckleyi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa présence n'est pas prouvée, mais probable dans la zone où ses deux espèces parentes se trouvent ensemble au Brésil (dans la zone des montagnes de la Serra dos Orgaos.
 </t>
